--- a/plans_test.xlsx
+++ b/plans_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimaburdenuk/Uvik/test_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48642BAE-A4E8-0343-8769-AE68A1FEBF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF3E85-EDF4-4042-B858-96357CCE7F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,16 @@
     <t>sum</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>Видача</t>
   </si>
   <si>
     <t>Збір</t>
   </si>
   <si>
-    <t>2025-12-01</t>
+    <t>2026-11-01</t>
+  </si>
+  <si>
+    <t>2026-12-01</t>
   </si>
 </sst>
 </file>
@@ -97,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +408,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -427,47 +428,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>25000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>13000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3100</v>
       </c>
     </row>
   </sheetData>
